--- a/autoevaluacion.xlsx
+++ b/autoevaluacion.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edgardo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edgardo\Documents\GitHub\pds\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="422">
   <si>
     <t>Factores</t>
   </si>
@@ -2260,8 +2260,8 @@
   <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3928,8 +3928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4418,7 +4418,9 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="C38" s="28"/>
+      <c r="C38" s="28" t="s">
+        <v>421</v>
+      </c>
       <c r="D38" s="28" t="s">
         <v>201</v>
       </c>
@@ -6281,18 +6283,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="A27:A35"/>
     <mergeCell ref="B27:B35"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
